--- a/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3240" yWindow="5900" windowWidth="39680" windowHeight="19780" tabRatio="618" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3240" yWindow="5900" windowWidth="39680" windowHeight="19780" tabRatio="618" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId1"/>
@@ -623,27 +623,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -653,6 +632,27 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2337,8 +2337,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" thickTop="1">
-      <c r="B13" s="104" t="n"/>
+      <c r="B13" s="108" t="n"/>
       <c r="C13" s="115" t="n"/>
     </row>
   </sheetData>
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1">
-      <c r="B5" s="105" t="inlineStr">
+      <c r="B5" s="109" t="inlineStr">
         <is>
           <t>Authorization</t>
         </is>
@@ -3077,14 +3077,14 @@
       <c r="V6" s="38" t="n"/>
       <c r="W6" s="38" t="n"/>
       <c r="X6" s="36" t="n"/>
-      <c r="Y6" s="107" t="inlineStr">
+      <c r="Y6" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transfer / Acquisition</t>
         </is>
       </c>
       <c r="Z6" s="116" t="n"/>
       <c r="AA6" s="40" t="n"/>
-      <c r="AB6" s="106" t="inlineStr">
+      <c r="AB6" s="110" t="inlineStr">
         <is>
           <t>Use or cancellation</t>
         </is>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
-      <c r="B3" s="109" t="inlineStr">
+      <c r="B3" s="113" t="inlineStr">
         <is>
           <t>Table 4: Holdings</t>
         </is>
@@ -3586,7 +3586,7 @@
       <c r="J3" s="117" t="n"/>
       <c r="K3" s="117" t="n"/>
       <c r="L3" s="50" t="n"/>
-      <c r="M3" s="110" t="n"/>
+      <c r="M3" s="114" t="n"/>
       <c r="N3" s="117" t="n"/>
       <c r="O3" s="117" t="n"/>
       <c r="P3" s="117" t="n"/>
@@ -3600,7 +3600,7 @@
       <c r="C4" s="67" t="n"/>
       <c r="D4" s="68" t="n"/>
       <c r="E4" s="67" t="n"/>
-      <c r="F4" s="108" t="inlineStr">
+      <c r="F4" s="112" t="inlineStr">
         <is>
           <t>Unique identifiers</t>
         </is>
@@ -3611,7 +3611,7 @@
       <c r="J4" s="118" t="n"/>
       <c r="K4" s="118" t="n"/>
       <c r="L4" s="69" t="n"/>
-      <c r="M4" s="108" t="inlineStr">
+      <c r="M4" s="112" t="inlineStr">
         <is>
           <t>Metric and quantity</t>
         </is>
@@ -3621,7 +3621,7 @@
       <c r="P4" s="118" t="n"/>
       <c r="Q4" s="118" t="n"/>
       <c r="R4" s="69" t="n"/>
-      <c r="S4" s="108" t="inlineStr">
+      <c r="S4" s="112" t="inlineStr">
         <is>
           <t>ITMO details</t>
         </is>
@@ -3634,14 +3634,14 @@
       <c r="C5" s="23" t="n"/>
       <c r="D5" s="38" t="n"/>
       <c r="E5" s="38" t="n"/>
-      <c r="F5" s="106" t="inlineStr">
+      <c r="F5" s="110" t="inlineStr">
         <is>
           <t>ITMO unique identifier</t>
         </is>
       </c>
       <c r="G5" s="116" t="n"/>
       <c r="H5" s="18" t="n"/>
-      <c r="I5" s="106" t="inlineStr">
+      <c r="I5" s="110" t="inlineStr">
         <is>
           <t>Underlying units</t>
         </is>
@@ -3668,7 +3668,7 @@
       <c r="G6" s="37" t="n"/>
       <c r="H6" s="18" t="n"/>
       <c r="I6" s="23" t="n"/>
-      <c r="J6" s="106" t="inlineStr">
+      <c r="J6" s="110" t="inlineStr">
         <is>
           <t>Underlying unit unique identifier</t>
         </is>
@@ -4287,7 +4287,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -4314,15 +4314,15 @@
     <row r="6"/>
     <row r="7"/>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="C8" s="111" t="inlineStr">
+      <c r="C8" s="104" t="inlineStr">
         <is>
           <t>Table 5: Authorized entities</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="C9" s="112" t="n"/>
-      <c r="D9" s="106" t="inlineStr">
+      <c r="C9" s="105" t="n"/>
+      <c r="D9" s="110" t="inlineStr">
         <is>
           <t>Authorized entity</t>
         </is>
@@ -4379,7 +4379,7 @@
       <c r="K10" s="53" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="113" t="n">
+      <c r="C11" s="106" t="n">
         <v>45707</v>
       </c>
       <c r="D11" s="53" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K11" s="53" t="n"/>
     </row>
     <row r="12" ht="16" customHeight="1" thickBot="1">
-      <c r="C12" s="114" t="n"/>
+      <c r="C12" s="107" t="n"/>
       <c r="D12" s="54" t="n"/>
       <c r="E12" s="54" t="n"/>
       <c r="F12" s="54" t="n"/>
@@ -4780,8 +4780,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -5091,17 +5091,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C097944B-F6F1-4D92-9077-F9F2EA55A425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A26BBD41-09D7-48CE-A0A2-BCAFCC4CD585}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08F54889-7DF8-4680-9038-6E05A4F49347}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF44D8A7-9AED-45B4-98A1-739470E80592}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF860C44-DE33-427A-9854-4BDA2C510972}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D07092-4F21-4885-94B4-86605C30239E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EC99EAF-880C-44EE-A14F-3401C390549C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6974A8AF-08AC-45AA-9143-B543FFBAB02D}"/>
 </file>
--- a/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
+++ b/AEF_files/10.syntax.passed/202504292100---AEF_CMA6_second_iteration - Guyana 2022.syntax_checked.xlsx
@@ -5091,17 +5091,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A26BBD41-09D7-48CE-A0A2-BCAFCC4CD585}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C8B5F51-9AAE-455F-BD11-48ECAB2A45E4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF44D8A7-9AED-45B4-98A1-739470E80592}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC401C1A-7596-4DD5-8768-FA3DD775D63F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D07092-4F21-4885-94B4-86605C30239E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CFC8C72-FECE-4B9E-B26B-43686D02632F}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6974A8AF-08AC-45AA-9143-B543FFBAB02D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5950400-1981-44CF-ADB7-BC7922C0E0E1}"/>
 </file>